--- a/6) Апрель/912/912 Разработка моб приложений_апрель.xlsx
+++ b/6) Апрель/912/912 Разработка моб приложений_апрель.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\6) Апрель\912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA759BB-7B81-4F45-AA96-211930C1FD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE70AE5-4D64-42E1-A886-73FB99F4D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="4170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-480" yWindow="5700" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>ФИО</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Мудл</t>
+  </si>
+  <si>
+    <t>Лекция 3.10</t>
+  </si>
+  <si>
+    <t>Лекция 3.11</t>
+  </si>
+  <si>
+    <t>Лекция 3.12</t>
+  </si>
+  <si>
+    <t>Практика 3.17</t>
   </si>
 </sst>
 </file>
@@ -227,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -239,8 +251,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,7 +534,7 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +573,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>45751</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="1">
         <v>45752</v>
       </c>
       <c r="D1" s="1">
@@ -613,358 +623,143 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -984,12 +779,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
